--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>9.176876091906711e-09</v>
+        <v>4.655797129565095e-10</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16693350787325e-08</v>
+        <v>1.281785367195304e-09</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.681336384847719e-08</v>
+        <v>1.922806788728252e-09</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>2.381760910921459e-08</v>
+        <v>2.00174808397222e-09</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>3.202777410189756e-08</v>
+        <v>2.075391872618378e-09</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>6.607586537318866e-08</v>
+        <v>2.19250888913746e-09</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.095726712778417e-07</v>
+        <v>1.978958501374002e-09</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>2.974816259374108e-07</v>
+        <v>2.167272656575671e-09</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>4.761487162107219e-07</v>
+        <v>1.609129739130923e-09</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>5.133302325201604e-07</v>
+        <v>2.017981624580353e-09</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>4.066681117636164e-07</v>
+        <v>1.563299788677231e-09</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>2.072065331720211e-07</v>
+        <v>1.38967878022746e-09</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.579769447742412e-07</v>
+        <v>1.488257330784663e-09</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>1.994274725833698e-07</v>
+        <v>1.124944301726384e-09</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>8.76727563039386e-08</v>
+        <v>1.14880758357384e-09</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>6.304298415505538e-08</v>
+        <v>9.936712179261687e-10</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>3.606642129492571e-08</v>
+        <v>1.016766835131869e-09</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.85150564296096e-08</v>
+        <v>1.306422359096465e-09</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.414636036322182e-08</v>
+        <v>1.072145942647559e-09</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.419271782683561e-08</v>
+        <v>1.245735512211284e-09</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.679895543298701e-08</v>
+        <v>2.366389207165728e-09</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.119198489623145e-08</v>
+        <v>2.646676627079005e-09</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>2.030318365580547e-08</v>
+        <v>3.503426910518393e-09</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>4.28334356913222e-08</v>
+        <v>3.824364375993449e-09</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>6.450913304003896e-08</v>
+        <v>3.345732937946559e-09</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.534132372259827e-07</v>
+        <v>4.059522570645273e-09</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>3.788515378873978e-07</v>
+        <v>3.694766662189346e-09</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>3.656503320167983e-07</v>
+        <v>3.84400963560076e-09</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>1.949661043030182e-07</v>
+        <v>3.764575672670234e-09</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>9.967431948692573e-08</v>
+        <v>3.74559926561943e-09</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>4.898066414100919e-08</v>
+        <v>3.532125598963922e-09</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>4.961771077160247e-08</v>
+        <v>3.260571449808397e-09</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.414997135890306e-08</v>
+        <v>3.878075093723788e-09</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.970514672861365e-08</v>
+        <v>3.383810495120495e-09</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.887921106982744e-08</v>
+        <v>3.270810318374897e-09</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.124086514972438e-08</v>
+        <v>2.122113949525578e-09</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>4.457381549958041e-08</v>
+        <v>2.159477954993749e-09</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>2.876556430687078e-08</v>
+        <v>1.772594529669442e-09</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.25838379710414e-08</v>
+        <v>2.163089025632954e-09</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>1.062885447602211e-08</v>
+        <v>3.251355869868879e-09</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>9.301753207850677e-09</v>
+        <v>3.309854699323477e-09</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.140414743062162e-08</v>
+        <v>3.077854002313135e-09</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.970254898526505e-08</v>
+        <v>2.745848264260488e-09</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>4.51437035680782e-08</v>
+        <v>2.862417888797175e-09</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>5.033042567512893e-08</v>
+        <v>2.741306573177016e-09</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>5.730277881580736e-08</v>
+        <v>1.747117870487095e-09</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>5.876941696336629e-08</v>
+        <v>2.203189317791378e-09</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>5.180446592169431e-08</v>
+        <v>3.148316071533908e-09</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>4.441908712321682e-08</v>
+        <v>4.44101493549165e-09</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>3.267023791829334e-08</v>
+        <v>5.947299794141104e-09</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>2.917304675590373e-08</v>
+        <v>1.221966648461871e-08</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>2.731027515507535e-08</v>
+        <v>2.018064087224386e-08</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>2.736873433344746e-08</v>
+        <v>5.467426313488135e-08</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>2.632237059308068e-08</v>
+        <v>8.73255004025194e-08</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2.596246696665244e-08</v>
+        <v>9.37610214923837e-08</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2.899613458791896e-08</v>
+        <v>7.403218334346983e-08</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>3.745474436531055e-08</v>
+        <v>3.759372935406932e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>5.820003326725968e-08</v>
+        <v>2.863746057396896e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>8.706095471849634e-08</v>
+        <v>3.612326852632253e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.123493894876943e-07</v>
+        <v>1.586643387516419e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>1.463317145572357e-07</v>
+        <v>1.139599703818571e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.797101976678256e-07</v>
+        <v>6.506108730596817e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.925518084707369e-07</v>
+        <v>3.325816284969419e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>2.35842271665193e-07</v>
+        <v>2.539001612275745e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>2.834000161066651e-07</v>
+        <v>2.544258909754274e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>2.841953880852735e-07</v>
+        <v>3.005238279228822e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>3.142909991623199e-07</v>
+        <v>3.78300343645203e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>3.175221445023867e-07</v>
+        <v>3.618077703822101e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>3.132444753048327e-07</v>
+        <v>7.6151530568394e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>3.058390771323204e-07</v>
+        <v>1.14441514170476e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>3.050753001308236e-07</v>
+        <v>2.710832583014128e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>2.878951425151152e-07</v>
+        <v>6.665590694753338e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2.792768040499973e-07</v>
+        <v>6.40682352966023e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.245955758859824e-07</v>
+        <v>3.402139483052321e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>2.058287014636742e-07</v>
+        <v>1.732070099888797e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>1.712787217692181e-07</v>
+        <v>8.4756070578452e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.302568928360471e-07</v>
+        <v>8.551287570230472e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.175901891866483e-07</v>
+        <v>5.860573028224197e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>9.999652875758948e-08</v>
+        <v>5.077289019333836e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>9.460498459252672e-08</v>
+        <v>3.219894787001434e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9.481824358857632e-08</v>
+        <v>3.61548842448034e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>9.342836683505361e-08</v>
+        <v>7.555666460367171e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>8.970382884344509e-08</v>
+        <v>4.835411319725717e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>8.974781966982492e-08</v>
+        <v>2.106524090918894e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>9.029435550464316e-08</v>
+        <v>1.772056670649956e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.003114988959368e-07</v>
+        <v>1.537928441762901e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.086083464498648e-07</v>
+        <v>1.869967804588846e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.134940340126166e-07</v>
+        <v>3.203982303688962e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.136329949217583e-07</v>
+        <v>7.325403344880304e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.107417559600066e-07</v>
+        <v>8.154517929119263e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.040158634991126e-07</v>
+        <v>9.241289066116804e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>8.828088773204878e-08</v>
+        <v>9.458253605457743e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>5.404188908970937e-08</v>
+        <v>8.319496452109058e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>4.507327788172799e-08</v>
+        <v>7.104090301958129e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>3.564847110120324e-08</v>
+        <v>5.203857205471627e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>2.694567043979481e-08</v>
+        <v>4.627359436652267e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.502096431054691e-08</v>
+        <v>4.328064637340491e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.441111663467218e-08</v>
+        <v>4.331736338790747e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>2.474895718764773e-08</v>
+        <v>4.157853990543656e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.344655912532269e-08</v>
+        <v>4.084312993918426e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.326022066044338e-08</v>
+        <v>4.523601373962845e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.335111728346966e-08</v>
+        <v>5.803918696020201e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.325239497239648e-08</v>
+        <v>8.930698992848066e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.279539943810097e-08</v>
+        <v>1.330393866451153e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.228334033869644e-08</v>
+        <v>1.709566814850126e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.221230930272574e-08</v>
+        <v>2.21759711235217e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.985221309306885e-08</v>
+        <v>2.716449212344992e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>2.013773187484665e-08</v>
+        <v>2.905685056391056e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>2.022776125774613e-08</v>
+        <v>3.54903245944951e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>2.002697832831895e-08</v>
+        <v>4.247339891963102e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.748177215745888e-08</v>
+        <v>4.253044590400783e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.502261639085268e-08</v>
+        <v>4.690784497511075e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.413145800129172e-08</v>
+        <v>4.728972988984065e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.373867334797673e-08</v>
+        <v>4.65969310284992e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.687932205934453e-08</v>
+        <v>4.54364827183072e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89487500741561e-08</v>
+        <v>4.528222783061254e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>3.536276025682668e-08</v>
+        <v>4.268327916820902e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>3.734901426703035e-08</v>
+        <v>4.137410144014337e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>3.79051243501254e-08</v>
+        <v>3.313436752139579e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>3.843838539321713e-08</v>
+        <v>3.029825759480106e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>3.86254560245534e-08</v>
+        <v>2.516438387504219e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>3.685229990799586e-08</v>
+        <v>1.905843351038242e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.364073771937982e-08</v>
+        <v>1.716696847483837e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>2.063011269248183e-08</v>
+        <v>1.456912832541368e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>1.285851346156155e-08</v>
+        <v>1.376702622325806e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.119470639230303e-08</v>
+        <v>1.379737298798448e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.237564815937088e-08</v>
+        <v>1.358407597261849e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.701506948527056e-08</v>
+        <v>1.301562493671967e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>1.885402849387855e-08</v>
+        <v>1.300564825289426e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>2.820003129251581e-08</v>
+        <v>1.307253128152889e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>3.67524257910697e-08</v>
+        <v>1.450664298285386e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>3.785198657395137e-08</v>
+        <v>1.568618168947134e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>3.604656162598521e-08</v>
+        <v>1.6372717350594e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>3.220358598521596e-08</v>
+        <v>1.637053957476652e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>3.188671552432141e-08</v>
+        <v>1.593542456420111e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>2.827541698857895e-08</v>
+        <v>1.493545563461975e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>2.381611729713648e-08</v>
+        <v>1.265051218201485e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>2.156580517183318e-08</v>
+        <v>7.711927274467244e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.108608501160903e-08</v>
+        <v>6.41867279795253e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>2.068082907731077e-08</v>
+        <v>5.066914519090902e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>2.037690530563984e-08</v>
+        <v>3.814539431893137e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.901423959940556e-08</v>
+        <v>3.533557073759117e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>2.110474499625551e-08</v>
+        <v>3.442101232509117e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.411563068996014e-08</v>
+        <v>3.485339981274906e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>2.711181613201926e-08</v>
+        <v>3.299009577100076e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>3.039930173270596e-08</v>
+        <v>3.271297868426974e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>3.490172302958061e-08</v>
+        <v>3.283482045953914e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>3.901315045844424e-08</v>
+        <v>3.269220560612956e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>3.719846076900376e-08</v>
+        <v>3.202084178667845e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>3.720026955572323e-08</v>
+        <v>3.127584656125771e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>3.308302553976707e-08</v>
+        <v>3.114977572743481e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>3.248768965994974e-08</v>
+        <v>2.781835214516481e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>2.859864991478008e-08</v>
+        <v>2.820369429679066e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.734875574502573e-08</v>
+        <v>2.832144027285483e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>2.663483916048061e-08</v>
+        <v>2.800439442889396e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>3.369829221732524e-08</v>
+        <v>2.439509521904478e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>2.937205410939316e-08</v>
+        <v>2.092026307014051e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>3.083059053176866e-08</v>
+        <v>1.964050625055598e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>2.785236081008179e-08</v>
+        <v>1.908335138242084e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>2.602743786888937e-08</v>
+        <v>2.34081746814917e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>2.462075735554494e-08</v>
+        <v>4.006165170492743e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>2.306085558417099e-08</v>
+        <v>4.888167624928539e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>2.123886211067525e-08</v>
+        <v>5.15611172777717e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>2.145009987835643e-08</v>
+        <v>5.225832841409569e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.091936495352057e-08</v>
+        <v>5.294912162781788e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>4.470862810770216e-09</v>
+        <v>5.318540464897586e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.75582830842158e-09</v>
+        <v>5.061643454615331e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>3.886033632225286e-09</v>
+        <v>4.616072732953385e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>2.414275936838424e-09</v>
+        <v>2.818281714622527e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>1.954480363293802e-09</v>
+        <v>1.742239239881289e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.659512654204832e-09</v>
+        <v>1.504152559575905e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.701924617590102e-09</v>
+        <v>1.649086816851968e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>2.333915016962671e-09</v>
+        <v>2.258411008359688e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>4.271735819513547e-09</v>
+        <v>2.498802725583558e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>4.671246458958305e-09</v>
+        <v>3.726520586883014e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>4.00277419085976e-09</v>
+        <v>4.836958614556583e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.542709539737548e-09</v>
+        <v>4.971141419374148e-09</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.724340522102388e-09</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.211960436818406e-09</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.170412608679007e-09</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.690754777894312e-09</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.102065789695569e-09</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.802895974150441e-09</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.737387962926442e-09</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.679514372112788e-09</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.637891949025701e-09</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.458773120631143e-09</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.722485320291682e-09</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.104890023917398e-09</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.483936010928865e-09</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.897822081108389e-09</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.466093298303908e-09</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.981441182199946e-09</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.749671223076831e-09</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.7409245278162e-09</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.207001074738437e-09</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.130969574558542e-09</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.630414184483489e-09</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.46984742046527e-09</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.378821322653278e-09</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.268721413865391e-09</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.718304569192958e-09</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.895988866505188e-09</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.516819895645937e-09</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.283585743276004e-09</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.103583219793893e-09</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.904308911603845e-09</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.672637619636645e-09</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.697416810197083e-09</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.370213341932373e-09</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.597949785103447e-10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.446512837212455e-10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.85913116692431e-10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.018180990241525e-10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.441244656263132e-10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.069463914616807e-10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.119519556378523e-10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.894148957983859e-10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.27372767869977e-10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.742405251566266e-10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.898139513949901e-10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.328245750732012e-10</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>4.655797129565095e-10</v>
+        <v>9.176876091906711e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.281785367195304e-09</v>
+        <v>1.16693350787325e-08</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.922806788728252e-09</v>
+        <v>1.681336384847719e-08</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>2.00174808397222e-09</v>
+        <v>2.381760910921459e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>2.075391872618378e-09</v>
+        <v>3.202777410189756e-08</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>2.19250888913746e-09</v>
+        <v>6.607586537318866e-08</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.978958501374002e-09</v>
+        <v>1.095726712778417e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>2.167272656575671e-09</v>
+        <v>2.974816259374108e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.609129739130923e-09</v>
+        <v>4.761487162107219e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>2.017981624580353e-09</v>
+        <v>5.133302325201604e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.563299788677231e-09</v>
+        <v>4.066681117636164e-07</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.38967878022746e-09</v>
+        <v>2.072065331720211e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.488257330784663e-09</v>
+        <v>1.579769447742412e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.124944301726384e-09</v>
+        <v>1.994274725833698e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.14880758357384e-09</v>
+        <v>8.76727563039386e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>9.936712179261687e-10</v>
+        <v>6.304298415505538e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.016766835131869e-09</v>
+        <v>3.606642129492571e-08</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.306422359096465e-09</v>
+        <v>1.85150564296096e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.072145942647559e-09</v>
+        <v>1.414636036322182e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.245735512211284e-09</v>
+        <v>1.419271782683561e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>2.366389207165728e-09</v>
+        <v>1.679895543298701e-08</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>2.646676627079005e-09</v>
+        <v>2.119198489623145e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>3.503426910518393e-09</v>
+        <v>2.030318365580547e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>3.824364375993449e-09</v>
+        <v>4.28334356913222e-08</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>3.345732937946559e-09</v>
+        <v>6.450913304003896e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>4.059522570645273e-09</v>
+        <v>1.534132372259827e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>3.694766662189346e-09</v>
+        <v>3.788515378873978e-07</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>3.84400963560076e-09</v>
+        <v>3.656503320167983e-07</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>3.764575672670234e-09</v>
+        <v>1.949661043030182e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>3.74559926561943e-09</v>
+        <v>9.967431948692573e-08</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.532125598963922e-09</v>
+        <v>4.898066414100919e-08</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>3.260571449808397e-09</v>
+        <v>4.961771077160247e-08</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>3.878075093723788e-09</v>
+        <v>3.414997135890306e-08</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>3.383810495120495e-09</v>
+        <v>2.970514672861365e-08</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>3.270810318374897e-09</v>
+        <v>1.887921106982744e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>2.122113949525578e-09</v>
+        <v>2.124086514972438e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>2.159477954993749e-09</v>
+        <v>4.457381549958041e-08</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.772594529669442e-09</v>
+        <v>2.876556430687078e-08</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>2.163089025632954e-09</v>
+        <v>1.25838379710414e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>3.251355869868879e-09</v>
+        <v>1.062885447602211e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>3.309854699323477e-09</v>
+        <v>9.301753207850677e-09</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>3.077854002313135e-09</v>
+        <v>1.140414743062162e-08</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>2.745848264260488e-09</v>
+        <v>1.970254898526505e-08</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>2.862417888797175e-09</v>
+        <v>4.51437035680782e-08</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>2.741306573177016e-09</v>
+        <v>5.033042567512893e-08</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.747117870487095e-09</v>
+        <v>5.730277881580736e-08</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>2.203189317791378e-09</v>
+        <v>5.876941696336629e-08</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>3.148316071533908e-09</v>
+        <v>5.180446592169431e-08</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>4.44101493549165e-09</v>
+        <v>4.441908712321682e-08</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>5.947299794141104e-09</v>
+        <v>3.267023791829334e-08</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>1.221966648461871e-08</v>
+        <v>2.917304675590373e-08</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>2.018064087224386e-08</v>
+        <v>2.731027515507535e-08</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>5.467426313488135e-08</v>
+        <v>2.736873433344746e-08</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>8.73255004025194e-08</v>
+        <v>2.632237059308068e-08</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>9.37610214923837e-08</v>
+        <v>2.596246696665244e-08</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>7.403218334346983e-08</v>
+        <v>2.899613458791896e-08</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>3.759372935406932e-08</v>
+        <v>3.745474436531055e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>2.863746057396896e-08</v>
+        <v>5.820003326725968e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>3.612326852632253e-08</v>
+        <v>8.706095471849634e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>1.586643387516419e-08</v>
+        <v>1.123493894876943e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.139599703818571e-08</v>
+        <v>1.463317145572357e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>6.506108730596817e-09</v>
+        <v>1.797101976678256e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>3.325816284969419e-09</v>
+        <v>1.925518084707369e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>2.539001612275745e-09</v>
+        <v>2.35842271665193e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>2.544258909754274e-09</v>
+        <v>2.834000161066651e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>3.005238279228822e-09</v>
+        <v>2.841953880852735e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>3.78300343645203e-09</v>
+        <v>3.142909991623199e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>3.618077703822101e-09</v>
+        <v>3.175221445023867e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>7.6151530568394e-09</v>
+        <v>3.132444753048327e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.14441514170476e-08</v>
+        <v>3.058390771323204e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>2.710832583014128e-08</v>
+        <v>3.050753001308236e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>6.665590694753338e-08</v>
+        <v>2.878951425151152e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>6.40682352966023e-08</v>
+        <v>2.792768040499973e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>3.402139483052321e-08</v>
+        <v>2.245955758859824e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>1.732070099888797e-08</v>
+        <v>2.058287014636742e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>8.4756070578452e-09</v>
+        <v>1.712787217692181e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>8.551287570230472e-09</v>
+        <v>1.302568928360471e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>5.860573028224197e-09</v>
+        <v>1.175901891866483e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>5.077289019333836e-09</v>
+        <v>9.999652875758948e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>3.219894787001434e-09</v>
+        <v>9.460498459252672e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>3.61548842448034e-09</v>
+        <v>9.481824358857632e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>7.555666460367171e-09</v>
+        <v>9.342836683505361e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>4.835411319725717e-09</v>
+        <v>8.970382884344509e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>2.106524090918894e-09</v>
+        <v>8.974781966982492e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.772056670649956e-09</v>
+        <v>9.029435550464316e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.537928441762901e-09</v>
+        <v>1.003114988959368e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>1.869967804588846e-09</v>
+        <v>1.086083464498648e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.203982303688962e-09</v>
+        <v>1.134940340126166e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.325403344880304e-09</v>
+        <v>1.136329949217583e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.154517929119263e-09</v>
+        <v>1.107417559600066e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>9.241289066116804e-09</v>
+        <v>1.040158634991126e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>9.458253605457743e-09</v>
+        <v>8.828088773204878e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>8.319496452109058e-09</v>
+        <v>5.404188908970937e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>7.104090301958129e-09</v>
+        <v>4.507327788172799e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>5.203857205471627e-09</v>
+        <v>3.564847110120324e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>4.627359436652267e-09</v>
+        <v>2.694567043979481e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>4.328064637340491e-09</v>
+        <v>2.502096431054691e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>4.331736338790747e-09</v>
+        <v>2.441111663467218e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>4.157853990543656e-09</v>
+        <v>2.474895718764773e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>4.084312993918426e-09</v>
+        <v>2.344655912532269e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>4.523601373962845e-09</v>
+        <v>2.326022066044338e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>5.803918696020201e-09</v>
+        <v>2.335111728346966e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>8.930698992848066e-09</v>
+        <v>2.325239497239648e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.330393866451153e-08</v>
+        <v>2.279539943810097e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.709566814850126e-08</v>
+        <v>2.228334033869644e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>2.21759711235217e-08</v>
+        <v>2.221230930272574e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>2.716449212344992e-08</v>
+        <v>1.985221309306885e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>2.905685056391056e-08</v>
+        <v>2.013773187484665e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>3.54903245944951e-08</v>
+        <v>2.022776125774613e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>4.247339891963102e-08</v>
+        <v>2.002697832831895e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>4.253044590400783e-08</v>
+        <v>1.748177215745888e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>4.690784497511075e-08</v>
+        <v>1.502261639085268e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>4.728972988984065e-08</v>
+        <v>1.413145800129172e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>4.65969310284992e-08</v>
+        <v>1.373867334797673e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>4.54364827183072e-08</v>
+        <v>1.687932205934453e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>4.528222783061254e-08</v>
+        <v>2.89487500741561e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>4.268327916820902e-08</v>
+        <v>3.536276025682668e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>4.137410144014337e-08</v>
+        <v>3.734901426703035e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>3.313436752139579e-08</v>
+        <v>3.79051243501254e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>3.029825759480106e-08</v>
+        <v>3.843838539321713e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>2.516438387504219e-08</v>
+        <v>3.86254560245534e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>1.905843351038242e-08</v>
+        <v>3.685229990799586e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.716696847483837e-08</v>
+        <v>3.364073771937982e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.456912832541368e-08</v>
+        <v>2.063011269248183e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.376702622325806e-08</v>
+        <v>1.285851346156155e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.379737298798448e-08</v>
+        <v>1.119470639230303e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.358407597261849e-08</v>
+        <v>1.237564815937088e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.301562493671967e-08</v>
+        <v>1.701506948527056e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.300564825289426e-08</v>
+        <v>1.885402849387855e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.307253128152889e-08</v>
+        <v>2.820003129251581e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.450664298285386e-08</v>
+        <v>3.67524257910697e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.568618168947134e-08</v>
+        <v>3.785198657395137e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.6372717350594e-08</v>
+        <v>3.604656162598521e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.637053957476652e-08</v>
+        <v>3.220358598521596e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.593542456420111e-08</v>
+        <v>3.188671552432141e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.493545563461975e-08</v>
+        <v>2.827541698857895e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.265051218201485e-08</v>
+        <v>2.381611729713648e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>7.711927274467244e-09</v>
+        <v>2.156580517183318e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>6.41867279795253e-09</v>
+        <v>2.108608501160903e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>5.066914519090902e-09</v>
+        <v>2.068082907731077e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>3.814539431893137e-09</v>
+        <v>2.037690530563984e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>3.533557073759117e-09</v>
+        <v>1.901423959940556e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>3.442101232509117e-09</v>
+        <v>2.110474499625551e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>3.485339981274906e-09</v>
+        <v>2.411563068996014e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>3.299009577100076e-09</v>
+        <v>2.711181613201926e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>3.271297868426974e-09</v>
+        <v>3.039930173270596e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>3.283482045953914e-09</v>
+        <v>3.490172302958061e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>3.269220560612956e-09</v>
+        <v>3.901315045844424e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>3.202084178667845e-09</v>
+        <v>3.719846076900376e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>3.127584656125771e-09</v>
+        <v>3.720026955572323e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>3.114977572743481e-09</v>
+        <v>3.308302553976707e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>2.781835214516481e-09</v>
+        <v>3.248768965994974e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>2.820369429679066e-09</v>
+        <v>2.859864991478008e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>2.832144027285483e-09</v>
+        <v>2.734875574502573e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>2.800439442889396e-09</v>
+        <v>2.663483916048061e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>2.439509521904478e-09</v>
+        <v>3.369829221732524e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>2.092026307014051e-09</v>
+        <v>2.937205410939316e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.964050625055598e-09</v>
+        <v>3.083059053176866e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.908335138242084e-09</v>
+        <v>2.785236081008179e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>2.34081746814917e-09</v>
+        <v>2.602743786888937e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>4.006165170492743e-09</v>
+        <v>2.462075735554494e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>4.888167624928539e-09</v>
+        <v>2.306085558417099e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>5.15611172777717e-09</v>
+        <v>2.123886211067525e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>5.225832841409569e-09</v>
+        <v>2.145009987835643e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>5.294912162781788e-09</v>
+        <v>1.091936495352057e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>5.318540464897586e-09</v>
+        <v>4.470862810770216e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>5.061643454615331e-09</v>
+        <v>2.75582830842158e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>4.616072732953385e-09</v>
+        <v>3.886033632225286e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>2.818281714622527e-09</v>
+        <v>2.414275936838424e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.742239239881289e-09</v>
+        <v>1.954480363293802e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.504152559575905e-09</v>
+        <v>1.659512654204832e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.649086816851968e-09</v>
+        <v>1.701924617590102e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>2.258411008359688e-09</v>
+        <v>2.333915016962671e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>2.498802725583558e-09</v>
+        <v>4.271735819513547e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>3.726520586883014e-09</v>
+        <v>4.671246458958305e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>4.836958614556583e-09</v>
+        <v>4.00277419085976e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>4.971141419374148e-09</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.724340522102388e-09</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.211960436818406e-09</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.170412608679007e-09</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.690754777894312e-09</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.102065789695569e-09</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.802895974150441e-09</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.737387962926442e-09</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.679514372112788e-09</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.637891949025701e-09</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.458773120631143e-09</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.722485320291682e-09</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.104890023917398e-09</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.483936010928865e-09</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.897822081108389e-09</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.466093298303908e-09</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.981441182199946e-09</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.749671223076831e-09</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.7409245278162e-09</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.207001074738437e-09</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.130969574558542e-09</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.630414184483489e-09</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.46984742046527e-09</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.378821322653278e-09</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.268721413865391e-09</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.718304569192958e-09</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.895988866505188e-09</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.516819895645937e-09</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.283585743276004e-09</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3.103583219793893e-09</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.904308911603845e-09</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.672637619636645e-09</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.697416810197083e-09</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.370213341932373e-09</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.597949785103447e-10</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.446512837212455e-10</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.85913116692431e-10</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.018180990241525e-10</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.441244656263132e-10</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.069463914616807e-10</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.119519556378523e-10</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.894148957983859e-10</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>5.27372767869977e-10</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>5.742405251566266e-10</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.898139513949901e-10</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.328245750732012e-10</v>
+        <v>3.542709539737548e-09</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>9.176876091906711e-09</v>
+        <v>728730344.0088073</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16693350787325e-08</v>
+        <v>1249418120.46086</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.681336384847719e-08</v>
+        <v>1747298075.060036</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>2.381760910921459e-08</v>
+        <v>1737747187.752302</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>3.202777410189756e-08</v>
+        <v>2132204358.848933</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>6.607586537318866e-08</v>
+        <v>2032954248.575229</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.095726712778417e-07</v>
+        <v>1952825138.902162</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>2.974816259374108e-07</v>
+        <v>2118938197.759698</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>4.761487162107219e-07</v>
+        <v>1501490772.579684</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>5.133302325201604e-07</v>
+        <v>1888778267.36066</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>4.066681117636164e-07</v>
+        <v>2091419586.876913</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>2.072065331720211e-07</v>
+        <v>1334929781.149921</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.579769447742412e-07</v>
+        <v>1368682133.198601</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>1.994274725833698e-07</v>
+        <v>1024397660.459408</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>8.76727563039386e-08</v>
+        <v>1103034584.621149</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>6.304298415505538e-08</v>
+        <v>931442170.5300311</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>3.606642129492571e-08</v>
+        <v>962764926.008181</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.85150564296096e-08</v>
+        <v>1217898786.334257</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.414636036322182e-08</v>
+        <v>1004825695.241713</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.419271782683561e-08</v>
+        <v>1196365852.528824</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.679895543298701e-08</v>
+        <v>2150880064.442206</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>2.119198489623145e-08</v>
+        <v>2505418916.835614</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>2.030318365580547e-08</v>
+        <v>3488909246.186401</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>4.28334356913222e-08</v>
+        <v>3689398157.608525</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>6.450913304003896e-08</v>
+        <v>3467686407.56961</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.534132372259827e-07</v>
+        <v>3806362485.893155</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>3.788515378873978e-07</v>
+        <v>3712152638.832115</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>3.656503320167983e-07</v>
+        <v>3674099423.925908</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>1.949661043030182e-07</v>
+        <v>3602587346.133088</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>9.967431948692573e-08</v>
+        <v>3646090913.996964</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>4.898066414100919e-08</v>
+        <v>3406933990.245937</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>4.961771077160247e-08</v>
+        <v>3203980063.991953</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.414997135890306e-08</v>
+        <v>3612505187.856253</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.970514672861365e-08</v>
+        <v>3204213211.58107</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.887921106982744e-08</v>
+        <v>3057125666.92135</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>2.124086514972438e-08</v>
+        <v>2053695033.032313</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4.457381549958041e-08</v>
+        <v>2034099717.636239</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>2.876556430687078e-08</v>
+        <v>1915072817.823057</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.25838379710414e-08</v>
+        <v>2044987035.085248</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>1.062885447602211e-08</v>
+        <v>3046316130.567335</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>9.301753207850677e-09</v>
+        <v>3125815441.814314</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.140414743062162e-08</v>
+        <v>2863240415.67689</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.970254898526505e-08</v>
+        <v>2566021399.081971</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>4.51437035680782e-08</v>
+        <v>2659813164.376011</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>5.033042567512893e-08</v>
+        <v>2563614428.418575</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>5.730277881580736e-08</v>
+        <v>1620064604.772579</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>5.876941696336629e-08</v>
+        <v>2059456228.649859</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>5.180446592169431e-08</v>
+        <v>2928605530.929559</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>4.441908712321682e-08</v>
+        <v>4158119565.518064</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>3.267023791829334e-08</v>
+        <v>5558845220.110594</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>2.917304675590373e-08</v>
+        <v>11375075478.63366</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>2.731027515507535e-08</v>
+        <v>18786631512.80103</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>2.736873433344746e-08</v>
+        <v>51054069988.5807</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>2.632237059308068e-08</v>
+        <v>81468244911.68382</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>2.596246696665244e-08</v>
+        <v>87343079159.92137</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>2.899613458791896e-08</v>
+        <v>69001579759.57256</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>3.745474436531055e-08</v>
+        <v>35116196248.00881</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>5.820003326725968e-08</v>
+        <v>26773606830.90387</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>8.706095471849634e-08</v>
+        <v>33705880740.24601</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.123493894876943e-07</v>
+        <v>14786603965.23839</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>1.463317145572357e-07</v>
+        <v>10593419781.58059</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.797101976678256e-07</v>
+        <v>6035555018.204618</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.925518084707369e-07</v>
+        <v>3102906427.189068</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>2.35842271665193e-07</v>
+        <v>2372767986.308757</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>2.834000161066651e-07</v>
+        <v>2395642025.286696</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>2.841953880852735e-07</v>
+        <v>2798614443.730867</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>3.142909991623199e-07</v>
+        <v>3609438856.857495</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>3.175221445023867e-07</v>
+        <v>3462853437.514103</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>3.132444753048327e-07</v>
+        <v>6951692875.027561</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>3.058390771323204e-07</v>
+        <v>10817766505.01474</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>3.050753001308236e-07</v>
+        <v>25301411689.63481</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>2.878951425151152e-07</v>
+        <v>62192578020.79836</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>2.792768040499973e-07</v>
+        <v>59809662497.99662</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>2.245955758859824e-07</v>
+        <v>31724853999.55217</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>2.058287014636742e-07</v>
+        <v>16238887820.48949</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>1.712787217692181e-07</v>
+        <v>7904990019.616966</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>1.302568928360471e-07</v>
+        <v>8005927597.822472</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.175901891866483e-07</v>
+        <v>5577250684.164137</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>9.999652875758948e-08</v>
+        <v>4733918687.073296</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>9.460498459252672e-08</v>
+        <v>2996574140.613944</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9.481824358857632e-08</v>
+        <v>3368345450.022388</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>9.342836683505361e-08</v>
+        <v>7034279837.19325</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>8.970382884344509e-08</v>
+        <v>4499973898.370484</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>8.974781966982492e-08</v>
+        <v>1957586563.208209</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>9.029435550464316e-08</v>
+        <v>1650333528.178036</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.003114988959368e-07</v>
+        <v>1435020273.718633</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.086083464498648e-07</v>
+        <v>1730234958.939514</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.134940340126166e-07</v>
+        <v>2987545403.014574</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.136329949217583e-07</v>
+        <v>6819370746.668492</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.107417559600066e-07</v>
+        <v>7583443815.253165</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.040158634991126e-07</v>
+        <v>8631495357.329332</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>8.828088773204878e-08</v>
+        <v>8798264788.92173</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>5.404188908970937e-08</v>
+        <v>7722682753.85911</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>4.507327788172799e-08</v>
+        <v>6628648644.880861</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>3.564847110120324e-08</v>
+        <v>4846451231.795337</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>2.694567043979481e-08</v>
+        <v>4320883228.322574</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.502096431054691e-08</v>
+        <v>4044033169.342202</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.441111663467218e-08</v>
+        <v>4007916871.438993</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>2.474895718764773e-08</v>
+        <v>3884531515.808997</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.344655912532269e-08</v>
+        <v>3802395241.053727</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.326022066044338e-08</v>
+        <v>4215224679.206861</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.335111728346966e-08</v>
+        <v>5416924073.482036</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.325239497239648e-08</v>
+        <v>8323193064.337636</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.279539943810097e-08</v>
+        <v>12390414340.77709</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.228334033869644e-08</v>
+        <v>15936813163.47052</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.221230930272574e-08</v>
+        <v>20646342033.34653</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.985221309306885e-08</v>
+        <v>25318478424.60782</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>2.013773187484665e-08</v>
+        <v>27073120127.18914</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>2.022776125774613e-08</v>
+        <v>33109574083.05006</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>2.002697832831895e-08</v>
+        <v>39581876234.47729</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.748177215745888e-08</v>
+        <v>39631656192.60917</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.502261639085268e-08</v>
+        <v>43682340273.42497</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.413145800129172e-08</v>
+        <v>44050271687.03373</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.373867334797673e-08</v>
+        <v>43416037274.07523</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.687932205934453e-08</v>
+        <v>42348654406.24949</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89487500741561e-08</v>
+        <v>42133884474.16375</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>3.536276025682668e-08</v>
+        <v>39758250574.30281</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>3.734901426703035e-08</v>
+        <v>38551379294.73978</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>3.79051243501254e-08</v>
+        <v>30866775824.7518</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>3.843838539321713e-08</v>
+        <v>28214374716.35958</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>3.86254560245534e-08</v>
+        <v>23471158706.74534</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>3.685229990799586e-08</v>
+        <v>17754026836.77497</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.364073771937982e-08</v>
+        <v>15989099205.70214</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>2.063011269248183e-08</v>
+        <v>13591699463.55127</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>1.285851346156155e-08</v>
+        <v>12828947467.89436</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.119470639230303e-08</v>
+        <v>12866239394.35788</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.237564815937088e-08</v>
+        <v>12686329958.32706</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.701506948527056e-08</v>
+        <v>12131507903.7283</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>1.885402849387855e-08</v>
+        <v>12139352147.60717</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>2.820003129251581e-08</v>
+        <v>12170621257.16195</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>3.67524257910697e-08</v>
+        <v>13519122230.50839</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>3.785198657395137e-08</v>
+        <v>14605316943.85912</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>3.604656162598521e-08</v>
+        <v>15243818981.50046</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>3.220358598521596e-08</v>
+        <v>15271321046.60293</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>3.188671552432141e-08</v>
+        <v>14833220622.36106</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>2.827541698857895e-08</v>
+        <v>13908557430.51299</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>2.381611729713648e-08</v>
+        <v>11794244702.96229</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>2.156580517183318e-08</v>
+        <v>7181149369.880623</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.108608501160903e-08</v>
+        <v>5962676517.356915</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>2.068082907731077e-08</v>
+        <v>4727832080.021451</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>2.037690530563984e-08</v>
+        <v>3560134464.485707</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.901423959940556e-08</v>
+        <v>3286238841.77399</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>2.110474499625551e-08</v>
+        <v>3189839577.86893</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.411563068996014e-08</v>
+        <v>3244200417.161963</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>2.711181613201926e-08</v>
+        <v>3074183015.155844</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>3.039930173270596e-08</v>
+        <v>3063696523.547044</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>3.490172302958061e-08</v>
+        <v>3064639114.81931</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>3.901315045844424e-08</v>
+        <v>3049015423.051227</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>3.719846076900376e-08</v>
+        <v>2981260950.208494</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>3.720026955572323e-08</v>
+        <v>2900700660.053386</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>3.308302553976707e-08</v>
+        <v>2889964266.683057</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>3.248768965994974e-08</v>
+        <v>2603739778.372162</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>2.859864991478008e-08</v>
+        <v>2625372746.812936</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.734875574502573e-08</v>
+        <v>2645739532.988976</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>2.663483916048061e-08</v>
+        <v>2608922334.973678</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>3.369829221732524e-08</v>
+        <v>2274975225.529384</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>2.937205410939316e-08</v>
+        <v>1961833708.703123</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>3.083059053176866e-08</v>
+        <v>1827638208.217414</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>2.785236081008179e-08</v>
+        <v>1775861307.236816</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>2.602743786888937e-08</v>
+        <v>2175879025.64386</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>2.462075735554494e-08</v>
+        <v>3755787199.931668</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>2.306085558417099e-08</v>
+        <v>4543943218.98732</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>2.123886211067525e-08</v>
+        <v>4801612318.898445</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>2.145009987835643e-08</v>
+        <v>4856715927.678212</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.091936495352057e-08</v>
+        <v>4925450008.065676</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>4.470862810770216e-09</v>
+        <v>4954908250.086062</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.75582830842158e-09</v>
+        <v>4709535295.997224</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>3.886033632225286e-09</v>
+        <v>4307363008.707536</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>2.414275936838424e-09</v>
+        <v>2625308307.187256</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>1.954480363293802e-09</v>
+        <v>1621782875.952764</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.659512654204832e-09</v>
+        <v>1402638539.192804</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.701924617590102e-09</v>
+        <v>1538122248.543069</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>2.333915016962671e-09</v>
+        <v>2109395625.047231</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>4.271735819513547e-09</v>
+        <v>2322009660.18768</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>4.671246458958305e-09</v>
+        <v>3460734591.347098</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>4.00277419085976e-09</v>
+        <v>4531324522.646379</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.542709539737548e-09</v>
+        <v>4626667485.690166</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4399499259.224031</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3914820134.121212</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3885623360.363303</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3438839884.352</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2887324935.167651</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2618731148.330014</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2570121491.900092</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2504157318.245316</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2463089828.933012</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2300791473.32637</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2542767232.873162</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2900903328.91088</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3248209017.153889</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3624461995.282103</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4156936090.560183</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4644166618.828549</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4426641218.986761</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4406253429.244807</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3921225382.190235</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3849428814.796713</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3388389667.762068</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3237425709.079457</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3153166429.08323</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3978124901.616413</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3462231661.725892</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3620195641.724277</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3278080792.270742</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3061085038.017103</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2891264145.653717</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2699700429.559525</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2489047719.28936</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2518480793.177933</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1280483724.082743</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>520959032.4722139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>320725587.1702961</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>452734681.97074</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>281099932.0080375</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>226954991.5193864</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>191071946.6678005</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>193350669.4885125</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>270233527.7539719</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>490433342.7858567</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>534228825.1112712</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>455885612.2232665</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>402381213.7341497</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>728730344.0088073</v>
+        <v>1.027121704403188e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1249418120.46086</v>
+        <v>1.263962115856493e-08</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1747298075.060036</v>
+        <v>1.808410095394504e-08</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1737747187.752302</v>
+        <v>2.598618410200357e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2132204358.848933</v>
+        <v>3.488510811379066e-08</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2032954248.575229</v>
+        <v>7.000583401061163e-08</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1952825138.902162</v>
+        <v>1.162651815209096e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2118938197.759698</v>
+        <v>3.102876774769648e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1501490772.579684</v>
+        <v>4.948888585929171e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1888778267.36066</v>
+        <v>5.364400983362579e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>2091419586.876913</v>
+        <v>4.234897092568352e-07</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>1334929781.149921</v>
+        <v>2.15423340464574e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1368682133.198601</v>
+        <v>1.656701769762292e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1024397660.459408</v>
+        <v>2.087712388163069e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1103034584.621149</v>
+        <v>9.301609183540014e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>931442170.5300311</v>
+        <v>6.565715594200523e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>962764926.008181</v>
+        <v>3.804825755410693e-08</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1217898786.334257</v>
+        <v>2.031712946034586e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1004825695.241713</v>
+        <v>1.548582764650894e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1196365852.528824</v>
+        <v>1.536097593077018e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2150880064.442206</v>
+        <v>1.872618027479524e-08</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2505418916.835614</v>
+        <v>2.330033473796544e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>3488909246.186401</v>
+        <v>2.22904629201855e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>3689398157.608525</v>
+        <v>4.552218566545254e-08</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3467686407.56961</v>
+        <v>7.028259334870843e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3806362485.893155</v>
+        <v>1.604302552489748e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3712152638.832115</v>
+        <v>3.993635726460568e-07</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3674099423.925908</v>
+        <v>3.872923224580088e-07</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>3602587346.133088</v>
+        <v>2.026383264077616e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3646090913.996964</v>
+        <v>1.054397055015165e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3406933990.245937</v>
+        <v>5.213734075897131e-08</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>3203980063.991953</v>
+        <v>5.220509612748837e-08</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3612505187.856253</v>
+        <v>3.51930679493539e-08</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3204213211.58107</v>
+        <v>3.220455510099381e-08</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>3057125666.92135</v>
+        <v>1.919661257358884e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2053695033.032313</v>
+        <v>2.292535315896628e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2034099717.636239</v>
+        <v>4.787324310448531e-08</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1915072817.823057</v>
+        <v>3.07650565436406e-08</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2044987035.085248</v>
+        <v>1.354588426701323e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>3046316130.567335</v>
+        <v>1.191191453668114e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3125815441.814314</v>
+        <v>1.02588593609406e-08</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2863240415.67689</v>
+        <v>1.204223041623489e-08</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2566021399.081971</v>
+        <v>2.144314504131829e-08</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2659813164.376011</v>
+        <v>4.796532717508165e-08</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2563614428.418575</v>
+        <v>5.354958064855494e-08</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1620064604.772579</v>
+        <v>6.117828940350487e-08</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>2059456228.649859</v>
+        <v>6.207442833012798e-08</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2928605530.929559</v>
+        <v>5.422690944458519e-08</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>4158119565.518064</v>
+        <v>4.744725696302755e-08</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>5558845220.110594</v>
+        <v>3.511684783102072e-08</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>11375075478.63366</v>
+        <v>3.181981327224293e-08</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>18786631512.80103</v>
+        <v>2.948937377341317e-08</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>51054069988.5807</v>
+        <v>2.924832775769384e-08</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>81468244911.68382</v>
+        <v>2.831772308265458e-08</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>87343079159.92137</v>
+        <v>2.776117170017294e-08</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>69001579759.57256</v>
+        <v>3.100302024151226e-08</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>35116196248.00881</v>
+        <v>4.016007780100562e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>26773606830.90387</v>
+        <v>6.190786598574334e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>33705880740.24601</v>
+        <v>9.108225279978272e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>14786603965.23839</v>
+        <v>1.180317797912796e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>10593419781.58059</v>
+        <v>1.530820633711951e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>6035555018.204618</v>
+        <v>1.878098449592363e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>3102906427.189068</v>
+        <v>2.008974132939396e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2372767986.308757</v>
+        <v>2.465855721754633e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>2395642025.286696</v>
+        <v>2.952083342648122e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>2798614443.730867</v>
+        <v>2.965277645045142e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>3609438856.857495</v>
+        <v>3.269412613400026e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>3462853437.514103</v>
+        <v>3.306497676010698e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>6951692875.027561</v>
+        <v>3.265710493968511e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>10817766505.01474</v>
+        <v>3.187695726657581e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>25301411689.63481</v>
+        <v>3.170337560218992e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>62192578020.79836</v>
+        <v>2.993034385160566e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>59809662497.99662</v>
+        <v>2.910318201359159e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>31724853999.55217</v>
+        <v>2.342089587163759e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>16238887820.48949</v>
+        <v>2.148355605807113e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>7904990019.616966</v>
+        <v>1.789028273415739e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>8005927597.822472</v>
+        <v>1.358948801169234e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>5577250684.164137</v>
+        <v>1.229261486898488e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>4733918687.073296</v>
+        <v>1.048770655625986e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2996574140.613944</v>
+        <v>9.908669146311778e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>3368345450.022388</v>
+        <v>9.953532434286406e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>7034279837.19325</v>
+        <v>9.82228430295965e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>4499973898.370484</v>
+        <v>9.397627894699763e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1957586563.208209</v>
+        <v>9.427346263978828e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1650333528.178036</v>
+        <v>9.493783531132022e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1435020273.718633</v>
+        <v>1.046799310526724e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1730234958.939514</v>
+        <v>1.136686513360909e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>2987545403.014574</v>
+        <v>1.18672109251588e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>6819370746.668492</v>
+        <v>1.192814388356457e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7583443815.253165</v>
+        <v>1.155847034517545e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>8631495357.329332</v>
+        <v>1.085871142549344e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>8798264788.92173</v>
+        <v>9.255389437006847e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>7722682753.85911</v>
+        <v>5.679156886247761e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>6628648644.880861</v>
+        <v>4.730998443963642e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4846451231.795337</v>
+        <v>3.788736492906091e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>4320883228.322574</v>
+        <v>2.871374645678202e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>4044033169.342202</v>
+        <v>2.6750219313225e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>4007916871.438993</v>
+        <v>2.605223881892896e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>3884531515.808997</v>
+        <v>2.64882608112496e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>3802395241.053727</v>
+        <v>2.505627972105331e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>4215224679.206861</v>
+        <v>2.496852565790511e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>5416924073.482036</v>
+        <v>2.514039694961582e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>8323193064.337636</v>
+        <v>2.481196279100009e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>12390414340.77709</v>
+        <v>2.420591613568582e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>15936813163.47052</v>
+        <v>2.348331939539442e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>20646342033.34653</v>
+        <v>2.307715421468951e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>25318478424.60782</v>
+        <v>2.156676554930579e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>27073120127.18914</v>
+        <v>2.165825698788704e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>33109574083.05006</v>
+        <v>2.201225994289247e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>39581876234.47729</v>
+        <v>2.162607595977303e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>39631656192.60917</v>
+        <v>1.887827171253913e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>43682340273.42497</v>
+        <v>1.644605860725888e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>44050271687.03373</v>
+        <v>1.533873296715261e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>43416037274.07523</v>
+        <v>1.485524204632573e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>42348654406.24949</v>
+        <v>1.842190228436609e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>42133884474.16375</v>
+        <v>3.121454241913063e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>39758250574.30281</v>
+        <v>3.748698575638796e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>38551379294.73978</v>
+        <v>3.973185588005901e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>30866775824.7518</v>
+        <v>4.007347997843361e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>28214374716.35958</v>
+        <v>4.10343583623528e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>23471158706.74534</v>
+        <v>4.110180169177483e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>17754026836.77497</v>
+        <v>3.904231295782531e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>15989099205.70214</v>
+        <v>3.588088566974835e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>13591699463.55127</v>
+        <v>2.206195223430361e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>12828947467.89436</v>
+        <v>1.383111167678513e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>12866239394.35788</v>
+        <v>1.220755119729811e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>12686329958.32706</v>
+        <v>1.328327275368463e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>12131507903.7283</v>
+        <v>1.83537375194922e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>12139352147.60717</v>
+        <v>2.02108161870399e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>12170621257.16195</v>
+        <v>2.992011632665128e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>13519122230.50839</v>
+        <v>3.891206220124159e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>14605316943.85912</v>
+        <v>4.033405128179104e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>15243818981.50046</v>
+        <v>3.816889994538546e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>15271321046.60293</v>
+        <v>3.380083790053462e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>14833220622.36106</v>
+        <v>2.977428480101774e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>13908557430.51299</v>
+        <v>2.510589992408048e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>11794244702.96229</v>
+        <v>2.302682625162287e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>7181149369.880623</v>
+        <v>2.285089859211004e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>5962676517.356915</v>
+        <v>2.175911260914407e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>4727832080.021451</v>
+        <v>2.161669421385848e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3560134464.485707</v>
+        <v>2.076910485952914e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>3286238841.77399</v>
+        <v>2.264079271020079e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3189839577.86893</v>
+        <v>2.580404587830877e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>3244200417.161963</v>
+        <v>2.877875543488081e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>3074183015.155844</v>
+        <v>3.219291452639943e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>3063696523.547044</v>
+        <v>3.677341834852635e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3064639114.81931</v>
+        <v>4.016131460685837e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3049015423.051227</v>
+        <v>3.894053686343636e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2981260950.208494</v>
+        <v>3.487804022700727e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2900700660.053386</v>
+        <v>3.42793172259016e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2889964266.683057</v>
+        <v>3.027087822532955e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2603739778.372162</v>
+        <v>2.896483858631389e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2625372746.812936</v>
+        <v>2.82481297312084e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2645739532.988976</v>
+        <v>3.545006063346618e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2608922334.973678</v>
+        <v>3.105867865097712e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2274975225.529384</v>
+        <v>3.247536048523519e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1961833708.703123</v>
+        <v>2.945559337889721e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1827638208.217414</v>
+        <v>2.755601118216901e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1775861307.236816</v>
+        <v>2.613377671487692e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2175879025.64386</v>
+        <v>2.414379311223996e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>3755787199.931668</v>
+        <v>2.251961783824003e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>4543943218.98732</v>
+        <v>2.294564222811607e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>4801612318.898445</v>
+        <v>1.182399393092227e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>4856715927.678212</v>
+        <v>4.869639130782777e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4925450008.065676</v>
+        <v>2.931160493075512e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>4954908250.086062</v>
+        <v>4.218986906161534e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>4709535295.997224</v>
+        <v>2.626591304823147e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>4307363008.707536</v>
+        <v>2.100051966156291e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2625308307.187256</v>
+        <v>1.75853423186421e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1621782875.952764</v>
+        <v>1.76951557682678e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1402638539.192804</v>
+        <v>2.561792281358854e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1538122248.543069</v>
+        <v>4.631504632989253e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>2109395625.047231</v>
+        <v>5.074509394274053e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>2322009660.18768</v>
+        <v>4.330407725713314e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>3460734591.347098</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4531324522.646379</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4626667485.690166</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4399499259.224031</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3914820134.121212</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3885623360.363303</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3438839884.352</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2887324935.167651</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2618731148.330014</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2570121491.900092</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2504157318.245316</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2463089828.933012</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2300791473.32637</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2542767232.873162</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2900903328.91088</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3248209017.153889</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3624461995.282103</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4156936090.560183</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4644166618.828549</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4426641218.986761</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4406253429.244807</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3921225382.190235</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3849428814.796713</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3388389667.762068</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3237425709.079457</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3153166429.08323</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3978124901.616413</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3462231661.725892</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3620195641.724277</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3278080792.270742</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3061085038.017103</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2891264145.653717</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2699700429.559525</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2489047719.28936</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2518480793.177933</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1280483724.082743</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>520959032.4722139</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>320725587.1702961</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>452734681.97074</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>281099932.0080375</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>226954991.5193864</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>191071946.6678005</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>193350669.4885125</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>270233527.7539719</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>490433342.7858567</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>534228825.1112712</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>455885612.2232665</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>402381213.7341497</v>
+        <v>3.832173203751649e-09</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints4.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.027121704403188e-08</v>
+        <v>5.37466720147262e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.263962115856493e-08</v>
+        <v>7.840653421298175e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.808410095394504e-08</v>
+        <v>1.290425633853758e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.598618410200357e-08</v>
+        <v>2.146618467227226e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>3.488510811379066e-08</v>
+        <v>3.13370989056089e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>7.000583401061163e-08</v>
+        <v>6.42064032270306e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.162651815209096e-07</v>
+        <v>1.128247368585389e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>3.102876774769648e-07</v>
+        <v>3.029417517715445e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>4.948888585929171e-07</v>
+        <v>4.845261968611471e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>5.364400983362579e-07</v>
+        <v>5.324442442791671e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>4.234897092568352e-07</v>
+        <v>4.179538129977168e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.15423340464574e-07</v>
+        <v>2.133348841504147e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.656701769762292e-07</v>
+        <v>1.607917445896251e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.087712388163069e-07</v>
+        <v>2.061445892475413e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>9.301609183540014e-08</v>
+        <v>8.878334860231888e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>6.565715594200523e-08</v>
+        <v>6.274129191577858e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.804825755410693e-08</v>
+        <v>3.291433766960435e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.031712946034586e-08</v>
+        <v>1.643086171825012e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.548582764650894e-08</v>
+        <v>1.243985126513602e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.536097593077018e-08</v>
+        <v>1.166845459793065e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.872618027479524e-08</v>
+        <v>1.591747094279133e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.330033473796544e-08</v>
+        <v>2.210362318289353e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.22904629201855e-08</v>
+        <v>1.876779256948095e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>4.552218566545254e-08</v>
+        <v>3.948557634103283e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>7.028259334870843e-08</v>
+        <v>6.225313782548398e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.604302552489748e-07</v>
+        <v>1.589395118924877e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3.993635726460568e-07</v>
+        <v>3.969779462105409e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.872923224580088e-07</v>
+        <v>3.823433000869359e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.026383264077616e-07</v>
+        <v>2.014090944100849e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.054397055015165e-07</v>
+        <v>1.01736433246492e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>5.213734075897131e-08</v>
+        <v>4.989628769549021e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.220509612748837e-08</v>
+        <v>4.967699805076071e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.51930679493539e-08</v>
+        <v>3.618126613966969e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3.220455510099381e-08</v>
+        <v>2.47079288437043e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.919661257358884e-08</v>
+        <v>1.883561390020077e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.292535315896628e-08</v>
+        <v>2.218610621226475e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.787324310448531e-08</v>
+        <v>4.707594162233243e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3.07650565436406e-08</v>
+        <v>3.023696473673814e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.354588426701323e-08</v>
+        <v>1.241910750592447e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.191191453668114e-08</v>
+        <v>1.044245012843084e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02588593609406e-08</v>
+        <v>9.536864341423833e-09</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.204223041623489e-08</v>
+        <v>1.100893056860016e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2.144314504131829e-08</v>
+        <v>2.103454523219156e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>4.796532717508165e-08</v>
+        <v>4.72891612872581e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>5.354958064855494e-08</v>
+        <v>5.280174253917143e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>6.117828940350487e-08</v>
+        <v>6.117136300289098e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>6.207442833012798e-08</v>
+        <v>6.181152159825423e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>5.422690944458519e-08</v>
+        <v>5.349422075554862e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>4.744725696302755e-08</v>
+        <v>4.669475751815812e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>3.511684783102072e-08</v>
+        <v>3.530448226406952e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>3.181981327224293e-08</v>
+        <v>3.152502639608083e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2.948937377341317e-08</v>
+        <v>2.981666994201497e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>2.924832775769384e-08</v>
+        <v>2.877776385046889e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.831772308265458e-08</v>
+        <v>2.715494447674332e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.776117170017294e-08</v>
+        <v>2.671757118019936e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>3.100302024151226e-08</v>
+        <v>3.055340163206259e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>4.016007780100562e-08</v>
+        <v>3.959622765864152e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>6.190786598574334e-08</v>
+        <v>6.192645378186396e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>9.108225279978272e-08</v>
+        <v>9.155665338782864e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.180317797912796e-07</v>
+        <v>1.185206907272823e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.530820633711951e-07</v>
+        <v>1.534751653391313e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.878098449592363e-07</v>
+        <v>1.886779357645338e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.008974132939396e-07</v>
+        <v>2.012384425089889e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.465855721754633e-07</v>
+        <v>2.468252333216513e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>2.952083342648122e-07</v>
+        <v>2.967729041181845e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>2.965277645045142e-07</v>
+        <v>2.974461680881127e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>3.269412613400026e-07</v>
+        <v>3.305959749793401e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>3.306497676010698e-07</v>
+        <v>3.314726932488256e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>3.265710493968511e-07</v>
+        <v>3.288029520210298e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.187695726657581e-07</v>
+        <v>3.20241170832399e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>3.170337560218992e-07</v>
+        <v>3.176066590095167e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>2.993034385160566e-07</v>
+        <v>3.022842111453947e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>2.910318201359159e-07</v>
+        <v>2.921440335109543e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.342089587163759e-07</v>
+        <v>2.362041389888955e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>2.148355605807113e-07</v>
+        <v>2.149052661296556e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.789028273415739e-07</v>
+        <v>1.794865641404364e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.358948801169234e-07</v>
+        <v>1.367365209595201e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.229261486898488e-07</v>
+        <v>1.235464956229754e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.048770655625986e-07</v>
+        <v>1.051129326428714e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>9.908669146311778e-08</v>
+        <v>9.952109103127659e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>9.953532434286406e-08</v>
+        <v>9.978697760314968e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>9.82228430295965e-08</v>
+        <v>9.854190333040989e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>9.397627894699763e-08</v>
+        <v>9.418418512184596e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>9.427346263978828e-08</v>
+        <v>9.440222489293792e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>9.493783531132022e-08</v>
+        <v>9.500700443378372e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.046799310526724e-07</v>
+        <v>1.050912886284212e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.136686513360909e-07</v>
+        <v>1.136798790504178e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.18672109251588e-07</v>
+        <v>1.186061848566987e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.192814388356457e-07</v>
+        <v>1.19328560303701e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.155847034517545e-07</v>
+        <v>1.159473190810259e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.085871142549344e-07</v>
+        <v>1.085126540687979e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>9.255389437006847e-08</v>
+        <v>9.303362348770705e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>5.679156886247761e-08</v>
+        <v>5.71511707250373e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>4.730998443963642e-08</v>
+        <v>4.780701934952909e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>3.788736492906091e-08</v>
+        <v>3.808396063366463e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>2.871374645678202e-08</v>
+        <v>2.887894058173992e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.6750219313225e-08</v>
+        <v>2.67916213677645e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.605223881892896e-08</v>
+        <v>2.606099479820331e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.64882608112496e-08</v>
+        <v>2.633409208854592e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.505627972105331e-08</v>
+        <v>2.488883779181401e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.496852565790511e-08</v>
+        <v>2.498656521530173e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.514039694961582e-08</v>
+        <v>2.495858541629326e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.481196279100009e-08</v>
+        <v>2.484606967568853e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.420591613568582e-08</v>
+        <v>2.442820751861858e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.348331939539442e-08</v>
+        <v>2.33783484218859e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2.307715421468951e-08</v>
+        <v>2.303587454325908e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>2.156676554930579e-08</v>
+        <v>2.145409663448418e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>2.165825698788704e-08</v>
+        <v>2.146989347388709e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>2.201225994289247e-08</v>
+        <v>2.198373780191486e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>2.162607595977303e-08</v>
+        <v>2.130624040835261e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.887827171253913e-08</v>
+        <v>1.871262165246243e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.644605860725888e-08</v>
+        <v>1.651725427589585e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.533873296715261e-08</v>
+        <v>1.53395816714124e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.485524204632573e-08</v>
+        <v>1.505489776266007e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.842190228436609e-08</v>
+        <v>1.835482564346988e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>3.121454241913063e-08</v>
+        <v>3.107185699759216e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>3.748698575638796e-08</v>
+        <v>3.751991623071894e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>3.973185588005901e-08</v>
+        <v>3.962459507753849e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>4.007347997843361e-08</v>
+        <v>4.002124220697945e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>4.10343583623528e-08</v>
+        <v>4.099812926501537e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>4.110180169177483e-08</v>
+        <v>4.125544157218394e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.904231295782531e-08</v>
+        <v>3.925990995965096e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>3.588088566974835e-08</v>
+        <v>3.611488948291785e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.206195223430361e-08</v>
+        <v>2.210387676415572e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.383111167678513e-08</v>
+        <v>1.394751714402762e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.220755119729811e-08</v>
+        <v>1.221378365420317e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.328327275368463e-08</v>
+        <v>1.339198549205116e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.83537375194922e-08</v>
+        <v>1.835771316576395e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>2.02108161870399e-08</v>
+        <v>2.016688871591825e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.992011632665128e-08</v>
+        <v>2.977166572848463e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>3.891206220124159e-08</v>
+        <v>3.955227351986793e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>4.033405128179104e-08</v>
+        <v>4.039358545806827e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>3.816889994538546e-08</v>
+        <v>3.821507559745416e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>3.380083790053462e-08</v>
+        <v>3.37607901037477e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>2.977428480101774e-08</v>
+        <v>2.965452163266935e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>2.510589992408048e-08</v>
+        <v>2.54703378493017e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>2.302682625162287e-08</v>
+        <v>2.283262502563404e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.285089859211004e-08</v>
+        <v>2.240047454420348e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2.175911260914407e-08</v>
+        <v>2.000505085947421e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2.161669421385848e-08</v>
+        <v>2.147684822581806e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.076910485952914e-08</v>
+        <v>2.083396420006536e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.264079271020079e-08</v>
+        <v>2.182721798767312e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>2.580404587830877e-08</v>
+        <v>2.555159548797971e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.877875543488081e-08</v>
+        <v>2.864703235599115e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>3.219291452639943e-08</v>
+        <v>3.205445804658653e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>3.677341834852635e-08</v>
+        <v>3.669186265132882e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>4.016131460685837e-08</v>
+        <v>4.022956291503575e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3.894053686343636e-08</v>
+        <v>3.883502811550182e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>3.487804022700727e-08</v>
+        <v>3.498855085465178e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>3.42793172259016e-08</v>
+        <v>3.442289648259664e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>3.027087822532955e-08</v>
+        <v>3.048056666391168e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.896483858631389e-08</v>
+        <v>2.904063163232108e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.82481297312084e-08</v>
+        <v>2.836050572941038e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>3.545006063346618e-08</v>
+        <v>3.564323451040195e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>3.105867865097712e-08</v>
+        <v>3.113094389792823e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>3.247536048523519e-08</v>
+        <v>3.264818218653809e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>2.945559337889721e-08</v>
+        <v>2.95776732502178e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>2.755601118216901e-08</v>
+        <v>2.767682044913455e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.613377671487692e-08</v>
+        <v>2.615329404120474e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.414379311223996e-08</v>
+        <v>2.431367666115298e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2.251961783824003e-08</v>
+        <v>2.262110962296e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.294564222811607e-08</v>
+        <v>2.309005394133948e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.182399393092227e-08</v>
+        <v>1.189156690497279e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>4.869639130782777e-09</v>
+        <v>5.014347345676012e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.931160493075512e-09</v>
+        <v>2.994568167011809e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>4.218986906161534e-09</v>
+        <v>4.291256147340401e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>2.626591304823147e-09</v>
+        <v>2.710840592383193e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>2.100051966156291e-09</v>
+        <v>2.181327857664372e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.75853423186421e-09</v>
+        <v>1.820552286466263e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.76951557682678e-09</v>
+        <v>1.619625073477303e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.561792281358854e-09</v>
+        <v>2.581697788504836e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>4.631504632989253e-09</v>
+        <v>4.600854219859544e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>5.074509394274053e-09</v>
+        <v>5.124787625604079e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>4.330407725713314e-09</v>
+        <v>4.402586479575017e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>3.832173203751649e-09</v>
+        <v>3.910077943596595e-09</v>
       </c>
     </row>
   </sheetData>
